--- a/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
+++ b/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>别名</t>
   </si>
@@ -154,6 +154,60 @@
   </si>
   <si>
     <t>//h3[text()='温馨提示']/../..//button[text()='确认']</t>
+  </si>
+  <si>
+    <t>车场盘点记录</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='车场盘点记录']</t>
+  </si>
+  <si>
+    <t>盘点操作记录</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='盘点操作记录']</t>
+  </si>
+  <si>
+    <t>事件记录</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='事件记录']</t>
+  </si>
+  <si>
+    <t>违规记录</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='违规记录']</t>
+  </si>
+  <si>
+    <t>移动管理报表</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='移动管理报表']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/div[1]//i[@class='el-input__icon el-range__icon el-icon-time']</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>//div[contains(@style,"position: absolute")]//input[@placeholder="开始日期"]</t>
+  </si>
+  <si>
+    <t>日期-确定</t>
+  </si>
+  <si>
+    <t>//div[contains(@style,"position: absolute")]//div[@class='el-picker-panel__footer']//span[contains(text(),"确定")]</t>
   </si>
 </sst>
 </file>
@@ -162,8 +216,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -182,16 +236,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,13 +253,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -213,22 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,70 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,8 +326,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,49 +395,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,121 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,17 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,16 +629,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,11 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1383,7 +1437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="32" customHeight="1" spans="1:3">
+    <row r="20" ht="29" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:3">
+    <row r="21" ht="29" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1405,7 +1459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="29" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1414,6 +1468,105 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="29" customHeight="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="29" customHeight="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="29" customHeight="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="29" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
+++ b/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>别名</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>//div[contains(@style,"position: absolute")]//div[@class='el-picker-panel__footer']//span[contains(text(),"确定")]</t>
+  </si>
+  <si>
+    <t>时间维度</t>
+  </si>
+  <si>
+    <t>//label[text()='时间维度']/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -215,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,6 +249,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -259,6 +288,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -273,8 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,15 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,71 +342,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,24 +401,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,6 +449,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,31 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,54 +582,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,54 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,8 +628,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +674,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -709,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1567,6 +1573,17 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
+++ b/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
@@ -99,13 +99,13 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//button[contains(text(),'确认')]</t>
+    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>绑定权限-确认</t>
   </si>
   <si>
-    <t>//h3[text()='设置车场权限']/../..//button[text()='确认']</t>
+    <t>//h3[text()='设置车场权限']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -153,7 +153,7 @@
     <t>温馨提示-确认</t>
   </si>
   <si>
-    <t>//h3[text()='温馨提示']/../..//button[text()='确认']</t>
+    <t>//h3[text()='温馨提示']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>车场盘点记录</t>
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -249,6 +249,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -272,105 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -401,6 +401,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,126 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,30 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,6 +621,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +684,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
+++ b/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>//*[@id="app"]//a[contains(text(), "新增")]</t>
   </si>
   <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='账号']/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='密码']/following-sibling::*[1]//input</t>
+    <t>登录账号</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='登录账号']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='登录密码']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>确认密码</t>
@@ -72,10 +72,10 @@
     <t>//div[@class='modal-container']//label[text()='姓名']/following-sibling::*[1]//input</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='手机号']/following-sibling::*[1]//input</t>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='手机号码']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>电子邮箱</t>
@@ -153,7 +153,7 @@
     <t>温馨提示-确认</t>
   </si>
   <si>
-    <t>//h3[text()='温馨提示']/../..//button[text()='确认']</t>
+    <t>//h3[text()='温馨提示']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>车场盘点记录</t>
@@ -223,8 +223,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -249,11 +249,132 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,127 +385,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -401,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +606,71 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,47 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -683,30 +707,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
+++ b/res/page/车场运营/增值服务/移动盘点/MobileUserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>//*[@id="app"]//a[contains(text(), "新增")]</t>
   </si>
   <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='账号']/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='密码']/following-sibling::*[1]//input</t>
+    <t>登录账号</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='登录账号']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='登录密码']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>确认密码</t>
@@ -72,10 +72,10 @@
     <t>//div[@class='modal-container']//label[text()='姓名']/following-sibling::*[1]//input</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='手机号']/following-sibling::*[1]//input</t>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='手机号码']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>电子邮箱</t>
@@ -221,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -249,47 +249,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,59 +363,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -364,15 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,80 +606,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,6 +633,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,145 +715,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
